--- a/BackEnd/evaulate.xlsx
+++ b/BackEnd/evaulate.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNTAR7\Skripsi\Program\Chatbot-Alkitab\BackEnd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNTAR7\Skripsi\Program\Chatbot-Alkitab\kode3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE08451-D11E-4ADE-A6F4-CC7E6312878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7BA2BE-02A2-47D4-A76A-540568699B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B0012A6F-537E-4EBC-A352-3B1612649442}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="6" r:id="rId1"/>
-    <sheet name="0.4-4" sheetId="3" r:id="rId2"/>
-    <sheet name="Tester" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
+    <sheet name="0.4-4" sheetId="3" r:id="rId3"/>
+    <sheet name="Tester" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="231">
   <si>
     <t>Query_ID</t>
   </si>
@@ -1611,68 +1613,147 @@
     <t>Kejadian 1:1: - Kejadian 1:2:</t>
   </si>
   <si>
-    <t>Kejadian 1:1: - Kejadian 1:2:|Kejadian 2:4: - Kejadian 2:9:|Amsal 8:22: - Amsal 8:29:|Ayub 38:33: - Ayub 38:33:</t>
-  </si>
-  <si>
     <t>Kejadian 1:23: - Kejadian 1:23:</t>
   </si>
   <si>
+    <t>Matius 1:24: - Matius 2:3:|Matius 2:4: - Matius 2:6:|Lukas 2:11: - Lukas 2:11:</t>
+  </si>
+  <si>
+    <t>Yohanes 19:17: - Yohanes 19:22:</t>
+  </si>
+  <si>
+    <t>Ratapan 3:24: - Ratapan 3:26:|Yeremia 17:7: - Yeremia 17:7:</t>
+  </si>
+  <si>
+    <t>Yohanes 3:31: - Yohanes 3:31:</t>
+  </si>
+  <si>
+    <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:</t>
+  </si>
+  <si>
+    <t>Kejadian 9:18: - Kejadian 9:20:</t>
+  </si>
+  <si>
+    <t>Markus 12:31: - Markus 12:32:|Matius 22:38: - Matius 22:40:</t>
+  </si>
+  <si>
+    <t>1Korintus 13:1: - 1Korintus 13:6:|1Korintus 13:13: - 1Korintus 14:1:|Yohanes 15:10: - Yohanes 15:15:|Yohanes 4:9: - Yohanes 4:13:</t>
+  </si>
+  <si>
+    <t>Siapa Ayah Daud ?</t>
+  </si>
+  <si>
+    <t>Dimana Daud Lahir ?</t>
+  </si>
+  <si>
+    <t>siapa yang membaptis Yesus</t>
+  </si>
+  <si>
+    <t>Dimana Tuhan Yesus Dibaptis?</t>
+  </si>
+  <si>
+    <t>Yudas Iskariot menerima uang dari ?</t>
+  </si>
+  <si>
+    <t>1Samuel 17:12: - 1Samuel 17:15:</t>
+  </si>
+  <si>
+    <t>Yohanes 1:25: - Yohanes 1:27:</t>
+  </si>
+  <si>
+    <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|Yohanes 12:34: - Yohanes 12:39:</t>
+  </si>
+  <si>
+    <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|1Korintus 5:12: - 1Korintus 6:4:</t>
+  </si>
+  <si>
+    <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|Matius 27:2: - Matius 27:8:</t>
+  </si>
+  <si>
     <t>Yohanes 6:49: - Yohanes 6:55:|Yohanes 6:26: - Yohanes 6:30:|Yohanes 6:31: - Yohanes 6:38:</t>
   </si>
   <si>
-    <t>1Tawarikh 8:31: - 1Tawarikh 8:31:|1Tawarikh 4:13: - 1Tawarikh 4:20:|Yosua 15:50: - Yosua 15:50:|Nehemia 11:29: - Nehemia 11:29:</t>
-  </si>
-  <si>
-    <t>Matius 1:24: - Matius 2:3:|Yohanes 4:51: - Yohanes 5:3:|Matius 1:12: - Matius 1:19:|Yohanes 3:2: - Yohanes 3:7:</t>
-  </si>
-  <si>
-    <t>Ulangan 28:15: - Ulangan 28:15:|Yeremia 42:20: - Yeremia 42:21:|Matius 27:9: - Matius 27:12:|Zakharia 11:12: - Zakharia 11:16:</t>
-  </si>
-  <si>
-    <t>Mazmur 144:3: - Mazmur 144:3:|Efesus 5:10: - Efesus 5:10:|Yesaya 44:12: - Yesaya 44:15:|Ulangan 4:23: - Ulangan 4:27:</t>
-  </si>
-  <si>
-    <t>Mazmur 90:12: - Mazmur 90:12:|Bilangan 4:18: - Bilangan 4:20:|2Korintus 4:16: - 2Korintus 4:18:</t>
-  </si>
-  <si>
-    <t>Yohanes 15:10: - Yohanes 15:15:|Kolose 3:12: - Kolose 3:16:|Hagai 2:17: - Hagai 2:20:|Matius 25:25: - Matius 25:30:</t>
-  </si>
-  <si>
-    <t>Ratapan 3:24: - Ratapan 3:26:|Yeremia 17:7: - Yeremia 17:7:|Ulangan 28:11: - Ulangan 28:14:|2Korintus 1:18: - 2Korintus 1:22:</t>
-  </si>
-  <si>
-    <t>Yohanes 3:31: - Yohanes 3:31:|Wahyu 22:16: - Wahyu 22:16:|Yohanes 1:32: - Yohanes 1:34:|Yesaya 6:2: - Yesaya 6:3:</t>
-  </si>
-  <si>
-    <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|Lukas 8:16: - Lukas 8:18:|Markus 10:23: - Markus 10:28:</t>
-  </si>
-  <si>
-    <t>Ulangan 28:15: - Ulangan 28:15:|Pengkhotbah 4:16: - Pengkhotbah 5:2:|Ulangan 18:18: - Ulangan 18:22:|Yeremia 42:20: - Yeremia 42:21:</t>
-  </si>
-  <si>
-    <t>Kejadian 18:16: - Kejadian 18:19:|Kejadian 21:12: - Kejadian 21:13:|Yesaya 30:15: - Yesaya 30:17:|Rasul 11:5: - Rasul 11:11:</t>
-  </si>
-  <si>
-    <t>Markus 12:31: - Markus 12:32:|Kejadian 17:12: - Kejadian 17:14:|Rasul 23:3: - Rasul 23:3:|Yesaya 42:2: - Yesaya 42:4:</t>
-  </si>
-  <si>
-    <t>Yohanes 19:17: - Yohanes 19:22:|Lukas 23:20: - Lukas 23:25:|Matius 27:19: - Matius 27:19:|Rasul 11:5: - Rasul 11:11:</t>
-  </si>
-  <si>
-    <t>hakim 16:16: - hakim 16:18:|Matius 20:12: - Matius 20:14:|Matius 10:9: - Matius 10:15:|Habakuk 1:2: - Habakuk 1:4:</t>
-  </si>
-  <si>
-    <t>Kejadian 18:16: - Kejadian 18:19:|Ibrani 11:17: - Ibrani 11:23:|Ulangan 30:18: - Ulangan 30:20:|Lukas 3:6: - Lukas 3:9:</t>
-  </si>
-  <si>
-    <t>1Korintus 13:13: - 1Korintus 14:1:|Agung 7:6: - Agung 7:12:|Hosea 2:7: - Hosea 2:11:|Agung 7:13: - Agung 8:2:</t>
+    <t>Lukas 6:46: - Lukas 6:47:|Ulangan 28:15: - Ulangan 28:15:|Yeremia 42:20: - Yeremia 42:21:</t>
+  </si>
+  <si>
+    <t>Yohanes 1:28: - Yohanes 1:29:</t>
+  </si>
+  <si>
+    <t>Matius 6:31: - Matius 6:31:</t>
+  </si>
+  <si>
+    <t>Galatia 5:22: - Galatia 5:22:</t>
+  </si>
+  <si>
+    <r>
+      <t>Matius 26:14: - Matius 26:14|Lukas 22:3: - Lukas 22:4:|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Matius 27:2: - Matius 27:8:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kejadian 17:4: - Kejadian 17:9:|Kejadian 28:13: - Kejadian 28:15:|Kejadian 12:1: - Kejadian 12:1:|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kejadian 15:1: - Kejadian 15:6:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yohanes 12:34: - Yohanes 12:39:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1Korintus 5:12: - 1Korintus 6:4:</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,6 +1779,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1726,7 +1815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1749,6 +1838,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,11 +2181,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8A7E23-60D6-4770-B6C3-EF6C30CC5152}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="36.109375" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A21" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CEDDA9-90FE-40CA-B52A-E63BE7E99553}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2138,7 +2504,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2150,7 +2516,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2158,11 +2524,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2174,7 +2540,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2186,7 +2552,7 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2210,7 +2576,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2218,23 +2584,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
+      <c r="B11" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>176</v>
+      <c r="B12" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2246,7 +2612,7 @@
         <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2258,7 +2624,7 @@
         <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2270,7 +2636,7 @@
         <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2282,7 +2648,7 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2294,19 +2660,19 @@
         <v>131</v>
       </c>
       <c r="C17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2318,19 +2684,19 @@
         <v>159</v>
       </c>
       <c r="C19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2341,8 +2707,8 @@
       <c r="B21" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>221</v>
+      <c r="C21" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2350,12 +2716,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C15EF28-EE9A-434C-AB85-A653EA82C87A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2618,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F94080-A08B-460C-980B-A92719D217E3}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -3087,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EE1BF-1330-4F7A-8C1E-50FC4BD25B4F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3101,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4589E7-EC4F-44E5-AEAF-59BD7E266F23}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
@@ -4002,12 +4368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432B657-6F23-4681-A5AB-E6FDB62AC08B}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4268,4 +4634,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9A479C-09A4-4807-8546-EE65B300BE93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>